--- a/node1_homework/grades.xlsx
+++ b/node1_homework/grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25003"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C7D846-A4AF-4A03-8116-FBA195874FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBB05A1-4FC5-4B94-89F4-11448BD08385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="600" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>grades</t>
   </si>
@@ -44,16 +44,25 @@
     <t>grade</t>
   </si>
   <si>
-    <t>aaa</t>
+    <t>אביטל</t>
   </si>
   <si>
-    <t>bbb</t>
+    <t>ברוך</t>
   </si>
   <si>
-    <t>ccc</t>
+    <t>נמרוד</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>דניאל</t>
+  </si>
+  <si>
+    <t>מתן</t>
+  </si>
+  <si>
+    <t>אבשלום</t>
+  </si>
+  <si>
+    <t>רועי</t>
   </si>
 </sst>
 </file>
@@ -924,7 +933,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -960,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -969,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -978,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
@@ -987,19 +996,33 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="B10" s="5"/>
